--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_31.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_31.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_0</t>
+          <t>model_1_31_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9922870961161826</v>
+        <v>0.8417834549130325</v>
       </c>
       <c r="C2" t="n">
-        <v>0.804395352509037</v>
+        <v>0.6047703946050198</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7413493846907174</v>
+        <v>0.7179807504968299</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9938692876795684</v>
+        <v>0.7340099484660504</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03210516832649486</v>
+        <v>0.3750036899247703</v>
       </c>
       <c r="G2" t="n">
-        <v>1.308009178448653</v>
+        <v>2.642902191141228</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9251782535369301</v>
+        <v>1.008766503057202</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03856289713341466</v>
+        <v>0.8145635152915625</v>
       </c>
       <c r="J2" t="n">
-        <v>0.590478014968199</v>
+        <v>1.115900423953602</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1791791514839125</v>
+        <v>0.6123754484993421</v>
       </c>
       <c r="L2" t="n">
-        <v>1.493625848564314</v>
+        <v>0.7845561939241295</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1820010440063448</v>
+        <v>0.6220197496623409</v>
       </c>
       <c r="N2" t="n">
-        <v>136.877476509501</v>
+        <v>35.9616388265215</v>
       </c>
       <c r="O2" t="n">
-        <v>278.2126490527174</v>
+        <v>72.92622241474731</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_1</t>
+          <t>model_1_31_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.992426821161813</v>
+        <v>0.8417375182667957</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8043538651132168</v>
+        <v>0.6045738301432868</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7412372994275308</v>
+        <v>0.7178313329569637</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9939519871372323</v>
+        <v>0.7349610107636628</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03152355909384186</v>
+        <v>0.375112568625365</v>
       </c>
       <c r="G3" t="n">
-        <v>1.308286604855535</v>
+        <v>2.644216618601933</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9255791760242716</v>
+        <v>1.009300960933577</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03804270787771324</v>
+        <v>0.8116509979100408</v>
       </c>
       <c r="J3" t="n">
-        <v>0.584553175886642</v>
+        <v>1.116176155047699</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1775487513159185</v>
+        <v>0.6124643406969625</v>
       </c>
       <c r="L3" t="n">
-        <v>1.484683445643967</v>
+        <v>0.7844936418952111</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1803449666655071</v>
+        <v>0.6221100418232142</v>
       </c>
       <c r="N3" t="n">
-        <v>136.9140402099063</v>
+        <v>35.96105823011331</v>
       </c>
       <c r="O3" t="n">
-        <v>278.2492127531227</v>
+        <v>72.92564181833913</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_2</t>
+          <t>model_1_31_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9925595855112548</v>
+        <v>0.8416851280904722</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8043173077888908</v>
+        <v>0.6043718525087332</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7411138543175542</v>
+        <v>0.7176739121554765</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9940195755767842</v>
+        <v>0.7359185891411364</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03097092394490305</v>
+        <v>0.375236743435441</v>
       </c>
       <c r="G4" t="n">
-        <v>1.308531063851635</v>
+        <v>2.645567243974215</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9260207320248993</v>
+        <v>1.009864046012714</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0376175686923106</v>
+        <v>0.8087185257937952</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5789743073735012</v>
+        <v>1.116422171374169</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1759855787981022</v>
+        <v>0.6125657054026458</v>
       </c>
       <c r="L4" t="n">
-        <v>1.476186527279694</v>
+        <v>0.7844223020806431</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1787571757431345</v>
+        <v>0.6222130029216845</v>
       </c>
       <c r="N4" t="n">
-        <v>136.9494129037931</v>
+        <v>35.96039627275977</v>
       </c>
       <c r="O4" t="n">
-        <v>278.2845854470095</v>
+        <v>72.9249798609856</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_3</t>
+          <t>model_1_31_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.992690112616327</v>
+        <v>0.8416250635123401</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8042860830263074</v>
+        <v>0.6041638968513574</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7410028641728068</v>
+        <v>0.7175075180089836</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9940872459133062</v>
+        <v>0.7368789500233206</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03042760138537939</v>
+        <v>0.3753791080561634</v>
       </c>
       <c r="G5" t="n">
-        <v>1.308739863982806</v>
+        <v>2.646957844412634</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9264177373370823</v>
+        <v>1.010459228226632</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0371919143653922</v>
+        <v>0.8057775325813458</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5734125259878984</v>
+        <v>1.116671236446549</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1744350921843979</v>
+        <v>0.6126818979341264</v>
       </c>
       <c r="L5" t="n">
-        <v>1.467832792555072</v>
+        <v>0.7843405120168035</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1771822705151823</v>
+        <v>0.622331025369386</v>
       </c>
       <c r="N5" t="n">
-        <v>136.9848102843798</v>
+        <v>35.95963761773193</v>
       </c>
       <c r="O5" t="n">
-        <v>278.3199828275962</v>
+        <v>72.92422120595775</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_4</t>
+          <t>model_1_31_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9928155112243356</v>
+        <v>0.8415573552355669</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8042454181899825</v>
+        <v>0.6039501971731358</v>
       </c>
       <c r="D6" t="n">
-        <v>0.74088038126614</v>
+        <v>0.7173325594487336</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9941468433306818</v>
+        <v>0.7378429997820759</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02990562633179795</v>
+        <v>0.3755395897151105</v>
       </c>
       <c r="G6" t="n">
-        <v>1.309011789930555</v>
+        <v>2.648386855144898</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9268558515922627</v>
+        <v>1.011085044851966</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03681703964357348</v>
+        <v>0.8028252426145628</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5679838392675548</v>
+        <v>1.116912327296894</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1729324328510935</v>
+        <v>0.612812850481377</v>
       </c>
       <c r="L6" t="n">
-        <v>1.459807281642519</v>
+        <v>0.7842483135122612</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1756559457994866</v>
+        <v>0.6224640402883512</v>
       </c>
       <c r="N6" t="n">
-        <v>137.019417289311</v>
+        <v>35.95878276267576</v>
       </c>
       <c r="O6" t="n">
-        <v>278.3545898325274</v>
+        <v>72.92336635090157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_5</t>
+          <t>model_1_31_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9929377463690359</v>
+        <v>0.8414824538485957</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8042193319521891</v>
+        <v>0.6037307171623716</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7407614714910075</v>
+        <v>0.717148157472918</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9942023615180243</v>
+        <v>0.7388128468083471</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02939681927869214</v>
+        <v>0.3757171204308725</v>
       </c>
       <c r="G7" t="n">
-        <v>1.309186228722796</v>
+        <v>2.649854518987491</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9272811849631266</v>
+        <v>1.011744640027218</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03646782375549696</v>
+        <v>0.7998551991920413</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5626957865780169</v>
+        <v>1.117122179027267</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1714550065722554</v>
+        <v>0.6129576824144327</v>
       </c>
       <c r="L7" t="n">
-        <v>1.451984232381704</v>
+        <v>0.7841463201342579</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1741552515336413</v>
+        <v>0.6226111531795737</v>
       </c>
       <c r="N7" t="n">
-        <v>137.0537375965796</v>
+        <v>35.95783751604212</v>
       </c>
       <c r="O7" t="n">
-        <v>278.388910139796</v>
+        <v>72.92242110426794</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_6</t>
+          <t>model_1_31_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9930585635337803</v>
+        <v>0.8413985316413015</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8041778691807473</v>
+        <v>0.6035051492578895</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7406293473343875</v>
+        <v>0.716954530520884</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9942599496694416</v>
+        <v>0.7397832069104786</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02889391460500776</v>
+        <v>0.3759160322285269</v>
       </c>
       <c r="G8" t="n">
-        <v>1.309463490466346</v>
+        <v>2.651362892603408</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9277537854103577</v>
+        <v>1.012437232407507</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03610558755142521</v>
+        <v>0.7968835845345285</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5571820511564007</v>
+        <v>1.11735475610402</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1699821008371404</v>
+        <v>0.6131199166790513</v>
       </c>
       <c r="L8" t="n">
-        <v>1.444251933838061</v>
+        <v>0.7840320430860276</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1726591490055638</v>
+        <v>0.6227759424716854</v>
       </c>
       <c r="N8" t="n">
-        <v>137.0882485466739</v>
+        <v>35.95677895814539</v>
       </c>
       <c r="O8" t="n">
-        <v>278.4234210898903</v>
+        <v>72.92136254637121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_7</t>
+          <t>model_1_31_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9931748990235825</v>
+        <v>0.8413059717560061</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8041418014053783</v>
+        <v>0.6032733901298617</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7405107251770495</v>
+        <v>0.7167510966498412</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9943090080894874</v>
+        <v>0.7407556545947178</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02840966502291695</v>
+        <v>0.376135416986965</v>
       </c>
       <c r="G9" t="n">
-        <v>1.309704675846315</v>
+        <v>2.652912666959682</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9281780899890475</v>
+        <v>1.013164903568454</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03579700435474724</v>
+        <v>0.7939055769002468</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5518744231838606</v>
+        <v>1.117590305336452</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1685516687040415</v>
+        <v>0.6132987991077147</v>
       </c>
       <c r="L9" t="n">
-        <v>1.436806462490722</v>
+        <v>0.7839060040932848</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1712061889962761</v>
+        <v>0.6229576421197833</v>
       </c>
       <c r="N9" t="n">
-        <v>137.1220517480031</v>
+        <v>35.95561209774034</v>
       </c>
       <c r="O9" t="n">
-        <v>278.4572242912195</v>
+        <v>72.92019568596616</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_8</t>
+          <t>model_1_31_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9932871875859377</v>
+        <v>0.841203933438923</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8041052918721512</v>
+        <v>0.6030354826189284</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7403723281637411</v>
+        <v>0.71653751088735</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9943511403435642</v>
+        <v>0.7417281382768106</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0279422608843645</v>
+        <v>0.3763772674546189</v>
       </c>
       <c r="G10" t="n">
-        <v>1.309948815263115</v>
+        <v>2.654503555580757</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9286731280809321</v>
+        <v>1.013928887456471</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03553198755163479</v>
+        <v>0.7909274590267367</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5465681686944353</v>
+        <v>1.117844322876841</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1671593876644818</v>
+        <v>0.613495939232379</v>
       </c>
       <c r="L10" t="n">
-        <v>1.429619994499987</v>
+        <v>0.78376705829981</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1697919809221137</v>
+        <v>0.6231578870043433</v>
       </c>
       <c r="N10" t="n">
-        <v>137.155230018317</v>
+        <v>35.95432653548482</v>
       </c>
       <c r="O10" t="n">
-        <v>278.4904025615334</v>
+        <v>72.91891012371063</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_9</t>
+          <t>model_1_31_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9933993268713923</v>
+        <v>0.841092726345629</v>
       </c>
       <c r="C11" t="n">
-        <v>0.804063085258493</v>
+        <v>0.6027913807720457</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7402210562584741</v>
+        <v>0.7163136202318089</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9943977362136063</v>
+        <v>0.7427025296641512</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02747547811489595</v>
+        <v>0.3766408496881212</v>
       </c>
       <c r="G11" t="n">
-        <v>1.310231051082991</v>
+        <v>2.656135865754847</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9292142189148225</v>
+        <v>1.014729731349415</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03523889408233502</v>
+        <v>0.7879434990283656</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5409886815245764</v>
+        <v>1.118098964665865</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1657572867625914</v>
+        <v>0.6137107215033164</v>
       </c>
       <c r="L11" t="n">
-        <v>1.422443080230892</v>
+        <v>0.7836156273642608</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1683677983326053</v>
+        <v>0.6233760518813445</v>
       </c>
       <c r="N11" t="n">
-        <v>137.1889227540556</v>
+        <v>35.95292639788777</v>
       </c>
       <c r="O11" t="n">
-        <v>278.524095297272</v>
+        <v>72.91750998611359</v>
       </c>
     </row>
   </sheetData>
